--- a/doc/一阶段验收文档/武大车辆信息化管理服务系统功能实施计划表.xlsx
+++ b/doc/一阶段验收文档/武大车辆信息化管理服务系统功能实施计划表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C7BCDCD-5922-4016-9B72-396DAFB7D48F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TIC服务" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +59,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>计划开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,15 +410,11 @@
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>页面还需优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,9 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4951,11 +4945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9014,11 +9008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F511"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9839,7 +9833,9 @@
       <c r="D51" s="3">
         <v>43236</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9851,7 +9847,9 @@
       <c r="D52" s="3">
         <v>43238</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9863,7 +9861,9 @@
       <c r="D53" s="3">
         <v>43242</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -9875,7 +9875,9 @@
       <c r="D54" s="3">
         <v>43245</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -13556,11 +13558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13735,12 +13737,10 @@
       <c r="D10" s="3">
         <v>43242</v>
       </c>
-      <c r="E10" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -13819,12 +13819,10 @@
       <c r="D15" s="3">
         <v>43238</v>
       </c>
-      <c r="E15" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
